--- a/version1/manipulating_test_cases.xlsx
+++ b/version1/manipulating_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPR101\CPR101\version1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB19A9D0-C72A-4CAA-9E7F-E1F6301C9FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF9AD7-B41C-438C-BFC2-AF54EA33CCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>Program
 or module:</t>
@@ -403,6 +403,26 @@
   </si>
   <si>
     <t>Check if the 2nd string is q as well and exit the program when applicable</t>
+  </si>
+  <si>
+    <t>*** Start of Concatenating Strings Demo ***
+Type the 1st string (q - to quit):
+QbaKozj6CjkH1ATLPQ6rglly9riWzt3nRbrCrrmN5DfMxC8PhwgZSn5vDKdkMPDvBzM2fOJ2lBZum8YbINYUGGlALWwJGGlhK5VQoJ2Xadht4K7hxwb8ChkIbSHdITCdsdHLXm3LL9lwCsWICIb19TNwjrCPwervA43DOAD7KMlnu5lPnWJ4ca9ua4vTUgQ8EwQAKHcg
+Type the 2nd string:
+Concatenated string is 'QbaKozj6CjkH1ATLPQ6rglly9riWzt3nRbrCrrmN5DfMxC8PhwgZSn5vDKdkMPDvBzM2fOJ2lBZum8YbINYUGGlALWwJGGlhK5QoJ2Xadht4K7hxwb8ChkIbSHdITCdsdHLXm3LL9lwCsWICIb19TNwjrCPwervA43DOAD7KMlnu5lPnWJ4ca9ua4vTUgQ8EwQAK'
+Type the 1st string (q - to quit):
+Type the 2nd string:</t>
+  </si>
+  <si>
+    <t>*** Start of Concatenating Strings Demo ***
+Type the 1st string (q - to quit):
+ZyBk27e3yEyMQ0WvL8t6KIJauYhrPmWuyRC2bnNKDcr1ZaScWM7VXZKeSl2u20yTgo0CkBtmuRcJSFdxqTW6r5Kr0hFY5imsxLl0
+Type the 2nd string:
+Concatenated string is 'ZyBk27e3yEyMQ0WvL8t6KIJauYhrPmWuyRC2bnNKDcr1ZaScWM7VXZKeSl2u20yTgo0CkBtmuRcJSFdxqTW6r5Kr0hFY5imsxL0'
+Type the 1st string (q - to quit):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd string input is not being taken , validation should be added here for string 1. </t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1202,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1307,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>17</v>
@@ -1537,13 +1557,13 @@
         <v>51</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="2"/>
@@ -1841,18 +1861,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2021,18 +2041,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4D9C73-E0F5-404E-9C51-FCAE195853E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC77C8E2-4EFE-4791-A84F-DFECD6468623}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC77C8E2-4EFE-4791-A84F-DFECD6468623}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4D9C73-E0F5-404E-9C51-FCAE195853E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/version1/manipulating_test_cases.xlsx
+++ b/version1/manipulating_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPR101\CPR101\version1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B470552C-2115-479B-82AC-41E5EEEAC00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E51B4B-5CE7-4E45-9496-876F611CA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
       <text>
         <r>
           <rPr>
@@ -643,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
       <text>
         <r>
           <rPr>
@@ -669,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
       <text>
         <r>
           <rPr>
@@ -761,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
       <text>
         <r>
           <rPr>
@@ -776,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
       <text>
         <r>
           <rPr>
@@ -885,7 +885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
       <text>
         <r>
           <rPr>
@@ -911,7 +911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
       <text>
         <r>
           <rPr>
@@ -956,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
       <text>
         <r>
           <rPr>
@@ -980,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
       <text>
         <r>
           <rPr>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>Comments</t>
   </si>
@@ -1360,6 +1360,24 @@
   </si>
   <si>
     <t>manipulating</t>
+  </si>
+  <si>
+    <t>Type the 1st string (q - to quit):
+hello
+Type the 2nd string:
+world</t>
+  </si>
+  <si>
+    <t>Concatenated string is 'helloworld'</t>
+  </si>
+  <si>
+    <t>Type the 1st string (q - to quit):
+0123456789
+Type the 2nd string:
+abcdefghijklmnopqrstuvwxwyz</t>
+  </si>
+  <si>
+    <t>Concatenated string is '0123456789abcdefghijklmnopqrstuvwxwyz'</t>
   </si>
 </sst>
 </file>
@@ -2454,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2857,70 +2875,107 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+    <row r="19" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="20" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G23" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="42"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="42"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="42"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
@@ -2934,67 +2989,67 @@
       <c r="E26" s="3"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="42"/>
       <c r="E27" s="3"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="42"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="42"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="42"/>
       <c r="E30" s="3"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="42"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="42"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="24"/>
+    <row r="31" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
@@ -3032,11 +3087,29 @@
       <c r="E38" s="3"/>
       <c r="F38" s="24"/>
     </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="42"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="42"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="42"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
